--- a/test7_matk/FieldDataParams_5Dec18.xlsx
+++ b/test7_matk/FieldDataParams_5Dec18.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="05Dec18" sheetId="1" r:id="rId1"/>
+    <sheet name="ParamCombs" sheetId="2" r:id="rId2"/>
+    <sheet name="07Dec18" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>ATS Soil Properties</t>
   </si>
@@ -48,6 +50,12 @@
   </si>
   <si>
     <t>Frost Boils</t>
+  </si>
+  <si>
+    <t>bAC</t>
+  </si>
+  <si>
+    <t>bCT</t>
   </si>
   <si>
     <t>K_AC</t>
@@ -87,6 +95,36 @@
   </si>
   <si>
     <t>n_MN</t>
+  </si>
+  <si>
+    <t>Parameter Combinations PER TYPE:</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Total Params:</t>
+  </si>
+  <si>
+    <t>n vals</t>
+  </si>
+  <si>
+    <t>n sims:</t>
+  </si>
+  <si>
+    <t>Riparian</t>
+  </si>
+  <si>
+    <t>Sedge Hi</t>
+  </si>
+  <si>
+    <t>Woody Hi</t>
   </si>
 </sst>
 </file>
@@ -138,13 +176,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -154,11 +189,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,98 +482,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <f>I6+I10</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>0.25</v>
@@ -539,72 +607,72 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="S5">
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="U5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>0.5</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>14</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>7</v>
       </c>
-      <c r="J6">
+      <c r="Q6">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="S6">
         <v>11</v>
       </c>
-      <c r="L6">
+      <c r="U6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="2">
         <v>0.75</v>
       </c>
@@ -612,36 +680,76 @@
         <v>16</v>
       </c>
       <c r="D7">
+        <f>C7-C5</f>
+        <v>7</v>
+      </c>
+      <c r="E7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
       <c r="F7">
-        <v>16</v>
+        <f>E7-E5</f>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7">
+        <f>G7-G5</f>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <f>I7-I5</f>
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <f>K7-K5</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
         <v>19</v>
       </c>
-      <c r="I7">
+      <c r="N7">
+        <f>M7-M5</f>
+        <v>7</v>
+      </c>
+      <c r="O7">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="P7">
+        <f>O7-O5</f>
+        <v>11</v>
+      </c>
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="R7">
+        <f>Q7-Q5</f>
+        <v>9</v>
+      </c>
+      <c r="S7">
         <v>18</v>
       </c>
-      <c r="L7">
+      <c r="T7">
+        <f>S7-S5</f>
+        <v>8</v>
+      </c>
+      <c r="U7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
+      <c r="V7">
+        <f>U7-U5</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>0.25</v>
@@ -649,72 +757,72 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>11</v>
       </c>
-      <c r="J8">
+      <c r="Q8">
         <v>32</v>
       </c>
-      <c r="K8">
+      <c r="S8">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="U8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="2">
         <v>0.5</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>24</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>30</v>
       </c>
-      <c r="H9">
+      <c r="M9">
         <v>9</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>17</v>
       </c>
-      <c r="J9">
+      <c r="Q9">
         <v>41</v>
       </c>
-      <c r="K9">
+      <c r="S9">
         <v>11</v>
       </c>
-      <c r="L9">
+      <c r="U9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" s="2">
         <v>0.75</v>
       </c>
@@ -722,689 +830,2399 @@
         <v>14</v>
       </c>
       <c r="D10">
+        <f>C10-C8</f>
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <f>E10-E8</f>
+        <v>9</v>
+      </c>
+      <c r="G10">
         <v>27</v>
       </c>
-      <c r="F10">
+      <c r="H10">
+        <f>G10-G8</f>
+        <v>14</v>
+      </c>
+      <c r="I10">
         <v>34</v>
       </c>
-      <c r="G10">
+      <c r="J10">
+        <f>I10-I8</f>
+        <v>14</v>
+      </c>
+      <c r="K10">
         <v>44</v>
       </c>
-      <c r="H10">
+      <c r="L10">
+        <f>K10-K8</f>
+        <v>27</v>
+      </c>
+      <c r="M10">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="N10">
+        <f>M10-M8</f>
+        <v>13</v>
+      </c>
+      <c r="O10">
         <v>33</v>
       </c>
-      <c r="J10">
+      <c r="P10">
+        <f>O10-O8</f>
+        <v>22</v>
+      </c>
+      <c r="Q10">
         <v>50</v>
       </c>
-      <c r="K10">
+      <c r="R10">
+        <f>Q10-Q8</f>
+        <v>18</v>
+      </c>
+      <c r="S10">
         <v>15</v>
       </c>
-      <c r="L10">
+      <c r="T10">
+        <f>S10-S8</f>
+        <v>7</v>
+      </c>
+      <c r="U10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
+      <c r="V10">
+        <f>U10-U8</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>0.25</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>1.0304999999999999E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
+        <f>C11*(0.00089/(1000*9.81))</f>
+        <v>9.3490825688073387E-11</v>
+      </c>
+      <c r="E11" s="6">
         <v>4.8730000000000003E-4</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="6">
+        <f>E11*(0.00089/(1000*9.81))</f>
+        <v>4.420968399592253E-11</v>
+      </c>
+      <c r="G11" s="6">
         <v>6.3840000000000001E-4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
+        <f>G11*(0.00089/(1000*9.81))</f>
+        <v>5.7918042813455656E-11</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <f>I11*(0.00089/(1000*9.81))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <f>K11*(0.00089/(1000*9.81))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
         <v>1.1612000000000001E-4</v>
       </c>
-      <c r="I11">
+      <c r="N11" s="6">
+        <f>M11*(0.00089/(1000*9.81))</f>
+        <v>1.0534841997961265E-11</v>
+      </c>
+      <c r="O11" s="6">
         <v>1.1612000000000001E-4</v>
       </c>
-      <c r="J11">
+      <c r="P11" s="6">
+        <f>O11*(0.00089/(1000*9.81))</f>
+        <v>1.0534841997961265E-11</v>
+      </c>
+      <c r="Q11" s="6">
         <v>1.1612000000000001E-4</v>
       </c>
-      <c r="K11">
+      <c r="R11" s="6">
+        <f>Q11*(0.00089/(1000*9.81))</f>
+        <v>1.0534841997961265E-11</v>
+      </c>
+      <c r="S11" s="6">
         <v>6.38E-4</v>
       </c>
-      <c r="L11">
+      <c r="T11" s="6">
+        <f>S11*(0.00089/(1000*9.81))</f>
+        <v>5.788175331294597E-11</v>
+      </c>
+      <c r="U11" s="6">
         <v>6.38E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="V11" s="6">
+        <f>U11*(0.00089/(1000*9.81))</f>
+        <v>5.788175331294597E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" s="2">
         <v>0.5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>1.9249E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:F19" si="0">C12*(0.00089/(1000*9.81))</f>
+        <v>1.746341488277268E-10</v>
+      </c>
+      <c r="E12" s="6">
         <v>1.1215000000000001E-3</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>1.017466870540265E-10</v>
+      </c>
+      <c r="G12" s="6">
         <v>1.2225999999999999E-3</v>
       </c>
-      <c r="F12">
+      <c r="H12" s="6">
+        <f t="shared" ref="H12" si="1">G12*(0.00089/(1000*9.81))</f>
+        <v>1.1091885830784912E-10</v>
+      </c>
+      <c r="I12" s="6">
         <v>2.0278000000000002E-3</v>
       </c>
-      <c r="G12">
+      <c r="J12" s="6">
+        <f t="shared" ref="J12" si="2">I12*(0.00089/(1000*9.81))</f>
+        <v>1.8396962283384302E-10</v>
+      </c>
+      <c r="K12" s="6">
         <v>2.0278000000000002E-3</v>
       </c>
-      <c r="H12">
+      <c r="L12" s="6">
+        <f t="shared" ref="L12" si="3">K12*(0.00089/(1000*9.81))</f>
+        <v>1.8396962283384302E-10</v>
+      </c>
+      <c r="M12" s="6">
         <v>1.4506E-4</v>
       </c>
-      <c r="I12">
+      <c r="N12" s="6">
+        <f t="shared" ref="N12" si="4">M12*(0.00089/(1000*9.81))</f>
+        <v>1.31603873598369E-11</v>
+      </c>
+      <c r="O12" s="6">
         <v>1.4506E-4</v>
       </c>
-      <c r="J12">
+      <c r="P12" s="6">
+        <f t="shared" ref="P12" si="5">O12*(0.00089/(1000*9.81))</f>
+        <v>1.31603873598369E-11</v>
+      </c>
+      <c r="Q12" s="6">
         <v>1.4506E-4</v>
       </c>
-      <c r="K12">
+      <c r="R12" s="6">
+        <f t="shared" ref="R12" si="6">Q12*(0.00089/(1000*9.81))</f>
+        <v>1.31603873598369E-11</v>
+      </c>
+      <c r="S12" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L12">
+      <c r="T12" s="6">
+        <f t="shared" ref="T12" si="7">S12*(0.00089/(1000*9.81))</f>
+        <v>9.0723751274209984E-11</v>
+      </c>
+      <c r="U12" s="6">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="V12" s="6">
+        <f t="shared" ref="V12" si="8">U12*(0.00089/(1000*9.81))</f>
+        <v>9.0723751274209984E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="2">
         <v>0.75</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>2.8021999999999999E-3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5422609582059123E-10</v>
+      </c>
+      <c r="E13" s="6">
         <v>1.8240999999999999E-3</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6548919469928642E-10</v>
+      </c>
+      <c r="G13" s="6">
         <v>3.2331E-3</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
+        <f t="shared" ref="H13" si="9">G13*(0.00089/(1000*9.81))</f>
+        <v>2.9331896024464833E-10</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <f t="shared" ref="J13" si="10">I13*(0.00089/(1000*9.81))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
+        <f t="shared" ref="L13" si="11">K13*(0.00089/(1000*9.81))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
         <v>1.7258E-3</v>
       </c>
-      <c r="I13">
+      <c r="N13" s="6">
+        <f t="shared" ref="N13" si="12">M13*(0.00089/(1000*9.81))</f>
+        <v>1.5657104994903159E-10</v>
+      </c>
+      <c r="O13" s="6">
         <v>1.7258E-3</v>
       </c>
-      <c r="J13">
+      <c r="P13" s="6">
+        <f t="shared" ref="P13" si="13">O13*(0.00089/(1000*9.81))</f>
+        <v>1.5657104994903159E-10</v>
+      </c>
+      <c r="Q13" s="6">
         <v>1.7258E-3</v>
       </c>
-      <c r="K13">
+      <c r="R13" s="6">
+        <f t="shared" ref="R13" si="14">Q13*(0.00089/(1000*9.81))</f>
+        <v>1.5657104994903159E-10</v>
+      </c>
+      <c r="S13" s="6">
         <v>1.6879E-3</v>
       </c>
-      <c r="L13">
+      <c r="T13" s="6">
+        <f t="shared" ref="T13" si="15">S13*(0.00089/(1000*9.81))</f>
+        <v>1.5313261977573904E-10</v>
+      </c>
+      <c r="U13" s="6">
         <v>1.6879E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
+      <c r="V13" s="6">
+        <f t="shared" ref="V13" si="16">U13*(0.00089/(1000*9.81))</f>
+        <v>1.5313261977573904E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>0.25</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>2.52E-6</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2862385321100916E-13</v>
+      </c>
+      <c r="E14" s="6">
         <v>3.0346999999999999E-5</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7531936799184503E-12</v>
+      </c>
+      <c r="G14" s="6">
         <v>1.3426E-5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="H14" s="6">
+        <f t="shared" ref="H14" si="17">G14*(0.00089/(1000*9.81))</f>
+        <v>1.2180570846075432E-12</v>
+      </c>
+      <c r="I14" s="6">
         <v>5.1560000000000003E-6</v>
       </c>
-      <c r="G14" s="8">
+      <c r="J14" s="6">
+        <f t="shared" ref="J14" si="18">I14*(0.00089/(1000*9.81))</f>
+        <v>4.677716615698267E-13</v>
+      </c>
+      <c r="K14" s="6">
         <v>8.5799999999999992E-6</v>
       </c>
-      <c r="H14" s="8">
+      <c r="L14" s="6">
+        <f t="shared" ref="L14" si="19">K14*(0.00089/(1000*9.81))</f>
+        <v>7.7840978593272164E-13</v>
+      </c>
+      <c r="M14" s="6">
         <v>1.8692E-5</v>
       </c>
-      <c r="I14" s="8">
+      <c r="N14" s="6">
+        <f t="shared" ref="N14" si="20">M14*(0.00089/(1000*9.81))</f>
+        <v>1.695808358817533E-12</v>
+      </c>
+      <c r="O14" s="6">
         <v>1.8692E-5</v>
       </c>
-      <c r="J14" s="8">
+      <c r="P14" s="6">
+        <f t="shared" ref="P14" si="21">O14*(0.00089/(1000*9.81))</f>
+        <v>1.695808358817533E-12</v>
+      </c>
+      <c r="Q14" s="6">
         <v>1.8692E-5</v>
       </c>
-      <c r="K14" s="8">
+      <c r="R14" s="6">
+        <f t="shared" ref="R14" si="22">Q14*(0.00089/(1000*9.81))</f>
+        <v>1.695808358817533E-12</v>
+      </c>
+      <c r="S14" s="6">
         <v>1.1199999999999999E-5</v>
       </c>
-      <c r="L14" s="8">
+      <c r="T14" s="6">
+        <f t="shared" ref="T14" si="23">S14*(0.00089/(1000*9.81))</f>
+        <v>1.0161060142711517E-12</v>
+      </c>
+      <c r="U14" s="6">
         <v>1.1199999999999999E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="V14" s="6">
+        <f t="shared" ref="V14" si="24">U14*(0.00089/(1000*9.81))</f>
+        <v>1.0161060142711517E-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" s="2">
         <v>0.5</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>1.22E-5</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1068297655453619E-12</v>
+      </c>
+      <c r="E15" s="6">
         <v>6.0439999999999997E-5</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4833435270132513E-12</v>
+      </c>
+      <c r="G15" s="6">
         <v>2.6696E-5</v>
       </c>
-      <c r="F15" s="8">
+      <c r="H15" s="6">
+        <f t="shared" ref="H15" si="25">G15*(0.00089/(1000*9.81))</f>
+        <v>2.4219612640163099E-12</v>
+      </c>
+      <c r="I15" s="6">
         <v>7.3200000000000002E-6</v>
       </c>
-      <c r="G15" s="8">
+      <c r="J15" s="6">
+        <f t="shared" ref="J15" si="26">I15*(0.00089/(1000*9.81))</f>
+        <v>6.6409785932721714E-13</v>
+      </c>
+      <c r="K15" s="6">
         <v>1.6900000000000001E-5</v>
       </c>
-      <c r="H15" s="8">
+      <c r="L15" s="6">
+        <f t="shared" ref="L15" si="27">K15*(0.00089/(1000*9.81))</f>
+        <v>1.5332313965341489E-12</v>
+      </c>
+      <c r="M15" s="6">
         <v>4.3037999999999997E-5</v>
       </c>
-      <c r="I15" s="8">
+      <c r="N15" s="6">
+        <f t="shared" ref="N15" si="28">M15*(0.00089/(1000*9.81))</f>
+        <v>3.9045688073394491E-12</v>
+      </c>
+      <c r="O15" s="6">
         <v>4.3037999999999997E-5</v>
       </c>
-      <c r="J15" s="8">
+      <c r="P15" s="6">
+        <f t="shared" ref="P15" si="29">O15*(0.00089/(1000*9.81))</f>
+        <v>3.9045688073394491E-12</v>
+      </c>
+      <c r="Q15" s="6">
         <v>4.3037999999999997E-5</v>
       </c>
-      <c r="K15" s="8">
+      <c r="R15" s="6">
+        <f t="shared" ref="R15" si="30">Q15*(0.00089/(1000*9.81))</f>
+        <v>3.9045688073394491E-12</v>
+      </c>
+      <c r="S15" s="6">
         <v>4.6029999999999998E-5</v>
       </c>
-      <c r="L15" s="8">
+      <c r="T15" s="6">
+        <f t="shared" ref="T15" si="31">S15*(0.00089/(1000*9.81))</f>
+        <v>4.1760142711518857E-12</v>
+      </c>
+      <c r="U15" s="6">
         <v>4.6029999999999998E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="V15" s="6">
+        <f t="shared" ref="V15" si="32">U15*(0.00089/(1000*9.81))</f>
+        <v>4.1760142711518857E-12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
       <c r="B16" s="2">
         <v>0.75</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>3.5099999999999999E-5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1844036697247705E-12</v>
+      </c>
+      <c r="E16">
         <v>1.5417E-4</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3986880733944953E-11</v>
+      </c>
+      <c r="G16" s="6">
         <v>3.9548999999999997E-5</v>
       </c>
-      <c r="F16" s="8">
+      <c r="H16" s="6">
+        <f t="shared" ref="H16" si="33">G16*(0.00089/(1000*9.81))</f>
+        <v>3.5880336391437303E-12</v>
+      </c>
+      <c r="I16" s="6">
         <v>1.573E-5</v>
       </c>
-      <c r="G16" s="8">
+      <c r="J16" s="6">
+        <f t="shared" ref="J16" si="34">I16*(0.00089/(1000*9.81))</f>
+        <v>1.427084607543323E-12</v>
+      </c>
+      <c r="K16" s="6">
         <v>4.3399999999999998E-5</v>
       </c>
-      <c r="H16" s="8">
+      <c r="L16" s="6">
+        <f t="shared" ref="L16" si="35">K16*(0.00089/(1000*9.81))</f>
+        <v>3.9374108053007135E-12</v>
+      </c>
+      <c r="M16" s="6">
         <v>6.6452999999999995E-5</v>
       </c>
-      <c r="I16" s="8">
+      <c r="N16" s="6">
+        <f t="shared" ref="N16" si="36">M16*(0.00089/(1000*9.81))</f>
+        <v>6.0288654434250759E-12</v>
+      </c>
+      <c r="O16" s="6">
         <v>6.6452999999999995E-5</v>
       </c>
-      <c r="J16" s="8">
+      <c r="P16" s="6">
+        <f t="shared" ref="P16" si="37">O16*(0.00089/(1000*9.81))</f>
+        <v>6.0288654434250759E-12</v>
+      </c>
+      <c r="Q16" s="6">
         <v>6.6452999999999995E-5</v>
       </c>
-      <c r="K16" s="8">
+      <c r="R16" s="6">
+        <f t="shared" ref="R16" si="38">Q16*(0.00089/(1000*9.81))</f>
+        <v>6.0288654434250759E-12</v>
+      </c>
+      <c r="S16" s="6">
         <v>8.2812999999999995E-5</v>
       </c>
-      <c r="L16" s="8">
+      <c r="T16" s="6">
+        <f t="shared" ref="T16" si="39">S16*(0.00089/(1000*9.81))</f>
+        <v>7.5131060142711514E-12</v>
+      </c>
+      <c r="U16" s="6">
         <v>8.2812999999999995E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
+      <c r="V16" s="6">
+        <f t="shared" ref="V16" si="40">U16*(0.00089/(1000*9.81))</f>
+        <v>7.5131060142711514E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>0.25</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>2.0891E-6</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8953098878695209E-13</v>
+      </c>
+      <c r="E17" s="6">
         <v>7.2291999999999996E-8</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>6.558601427115188E-15</v>
+      </c>
+      <c r="G17" s="6">
         <v>1.2730999999999999E-7</v>
       </c>
-      <c r="F17" s="8">
+      <c r="H17" s="6">
+        <f t="shared" ref="H17" si="41">G17*(0.00089/(1000*9.81))</f>
+        <v>1.1550040774719672E-14</v>
+      </c>
+      <c r="I17" s="6">
         <v>1.1574E-8</v>
       </c>
-      <c r="G17" s="8">
+      <c r="J17" s="6">
+        <f t="shared" ref="J17" si="42">I17*(0.00089/(1000*9.81))</f>
+        <v>1.0500366972477063E-15</v>
+      </c>
+      <c r="K17" s="6">
         <v>1.1574E-8</v>
       </c>
-      <c r="H17" s="8">
+      <c r="L17" s="6">
+        <f t="shared" ref="L17" si="43">K17*(0.00089/(1000*9.81))</f>
+        <v>1.0500366972477063E-15</v>
+      </c>
+      <c r="M17" s="6">
         <v>1.16E-8</v>
       </c>
-      <c r="I17" s="8">
+      <c r="N17" s="6">
+        <f t="shared" ref="N17" si="44">M17*(0.00089/(1000*9.81))</f>
+        <v>1.0523955147808358E-15</v>
+      </c>
+      <c r="O17" s="6">
         <v>1.16E-8</v>
       </c>
-      <c r="J17" s="8">
+      <c r="P17" s="6">
+        <f t="shared" ref="P17" si="45">O17*(0.00089/(1000*9.81))</f>
+        <v>1.0523955147808358E-15</v>
+      </c>
+      <c r="Q17" s="6">
         <v>1.16E-8</v>
       </c>
-      <c r="K17" s="8">
+      <c r="R17" s="6">
+        <f t="shared" ref="R17" si="46">Q17*(0.00089/(1000*9.81))</f>
+        <v>1.0523955147808358E-15</v>
+      </c>
+      <c r="S17" s="6">
         <v>4.9189999999999999E-8</v>
       </c>
-      <c r="L17" s="8">
+      <c r="T17" s="6">
+        <f t="shared" ref="T17" si="47">S17*(0.00089/(1000*9.81))</f>
+        <v>4.4627013251783893E-15</v>
+      </c>
+      <c r="U17" s="6">
         <v>4.9189999999999999E-8</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="V17" s="6">
+        <f t="shared" ref="V17" si="48">U17*(0.00089/(1000*9.81))</f>
+        <v>4.4627013251783893E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
       <c r="B18" s="2">
         <v>0.5</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>4.2819999999999998E-6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8847910295616712E-13</v>
+      </c>
+      <c r="E18" s="6">
         <v>1.85E-7</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6783893985728848E-14</v>
+      </c>
+      <c r="G18" s="6">
         <v>4.3981000000000002E-7</v>
       </c>
-      <c r="F18" s="8">
+      <c r="H18" s="6">
+        <f t="shared" ref="H18" si="49">G18*(0.00089/(1000*9.81))</f>
+        <v>3.9901213047910295E-14</v>
+      </c>
+      <c r="I18" s="6">
         <v>4.4560000000000002E-7</v>
       </c>
-      <c r="G18" s="8">
+      <c r="J18" s="6">
+        <f t="shared" ref="J18" si="50">I18*(0.00089/(1000*9.81))</f>
+        <v>4.0426503567787972E-14</v>
+      </c>
+      <c r="K18" s="6">
         <v>4.4560000000000002E-7</v>
       </c>
-      <c r="H18" s="8">
+      <c r="L18" s="6">
+        <f t="shared" ref="L18" si="51">K18*(0.00089/(1000*9.81))</f>
+        <v>4.0426503567787972E-14</v>
+      </c>
+      <c r="M18" s="6">
         <v>1.15E-8</v>
       </c>
-      <c r="I18" s="8">
+      <c r="N18" s="6">
+        <f t="shared" ref="N18" si="52">M18*(0.00089/(1000*9.81))</f>
+        <v>1.0433231396534149E-15</v>
+      </c>
+      <c r="O18" s="6">
         <v>1.15E-8</v>
       </c>
-      <c r="J18" s="8">
+      <c r="P18" s="6">
+        <f t="shared" ref="P18" si="53">O18*(0.00089/(1000*9.81))</f>
+        <v>1.0433231396534149E-15</v>
+      </c>
+      <c r="Q18" s="6">
         <v>1.15E-8</v>
       </c>
-      <c r="K18" s="8">
+      <c r="R18" s="6">
+        <f t="shared" ref="R18" si="54">Q18*(0.00089/(1000*9.81))</f>
+        <v>1.0433231396534149E-15</v>
+      </c>
+      <c r="S18" s="6">
         <v>1.157E-7</v>
       </c>
-      <c r="L18" s="8">
+      <c r="T18" s="6">
+        <f t="shared" ref="T18" si="55">S18*(0.00089/(1000*9.81))</f>
+        <v>1.0496738022426096E-14</v>
+      </c>
+      <c r="U18" s="6">
         <v>1.157E-7</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="V18" s="6">
+        <f t="shared" ref="V18" si="56">U18*(0.00089/(1000*9.81))</f>
+        <v>1.0496738022426096E-14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
       <c r="B19" s="2">
         <v>0.75</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>1.254E-5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1376758409785932E-12</v>
+      </c>
+      <c r="E19" s="6">
         <v>2.9299999999999999E-7</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6582059123343524E-14</v>
+      </c>
+      <c r="G19" s="6">
         <v>4.2765999999999998E-6</v>
       </c>
-      <c r="F19" s="8">
+      <c r="H19" s="6">
+        <f t="shared" ref="H19" si="57">G19*(0.00089/(1000*9.81))</f>
+        <v>3.8798919469928642E-13</v>
+      </c>
+      <c r="I19" s="6">
         <v>8.7899999999999997E-7</v>
       </c>
-      <c r="G19" s="8">
+      <c r="J19" s="6">
+        <f t="shared" ref="J19" si="58">I19*(0.00089/(1000*9.81))</f>
+        <v>7.974617737003057E-14</v>
+      </c>
+      <c r="K19" s="6">
         <v>8.7899999999999997E-7</v>
       </c>
-      <c r="H19" s="8">
+      <c r="L19" s="6">
+        <f t="shared" ref="L19" si="59">K19*(0.00089/(1000*9.81))</f>
+        <v>7.974617737003057E-14</v>
+      </c>
+      <c r="M19" s="6">
         <v>7.8400000000000003E-7</v>
       </c>
-      <c r="I19" s="8">
+      <c r="N19" s="6">
+        <f t="shared" ref="N19" si="60">M19*(0.00089/(1000*9.81))</f>
+        <v>7.1127420998980627E-14</v>
+      </c>
+      <c r="O19" s="6">
         <v>7.8400000000000003E-7</v>
       </c>
-      <c r="J19" s="8">
+      <c r="P19" s="6">
+        <f t="shared" ref="P19" si="61">O19*(0.00089/(1000*9.81))</f>
+        <v>7.1127420998980627E-14</v>
+      </c>
+      <c r="Q19" s="6">
         <v>7.8400000000000003E-7</v>
       </c>
-      <c r="K19" s="8">
+      <c r="R19" s="6">
+        <f t="shared" ref="R19" si="62">Q19*(0.00089/(1000*9.81))</f>
+        <v>7.1127420998980627E-14</v>
+      </c>
+      <c r="S19" s="6">
         <v>3.3536E-6</v>
       </c>
-      <c r="L19" s="8">
+      <c r="T19" s="6">
+        <f t="shared" ref="T19" si="63">S19*(0.00089/(1000*9.81))</f>
+        <v>3.0425117227319059E-13</v>
+      </c>
+      <c r="U19" s="6">
         <v>3.3536E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
+      <c r="V19" s="6">
+        <f t="shared" ref="V19" si="64">U19*(0.00089/(1000*9.81))</f>
+        <v>3.0425117227319059E-13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>0.25</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>0.88</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>0.83</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>0.82</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
         <v>0.89</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7">
         <v>0.89</v>
       </c>
-      <c r="J20" s="9">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
         <v>0.89</v>
       </c>
-      <c r="K20" s="9">
+      <c r="R20" s="7"/>
+      <c r="S20" s="7">
         <v>0.88</v>
       </c>
-      <c r="L20" s="9">
+      <c r="T20" s="7"/>
+      <c r="U20" s="7">
         <v>0.88</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
       <c r="B21" s="2">
         <v>0.5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>0.94</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>0.89</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
         <v>0.95</v>
       </c>
-      <c r="F21" s="9">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
         <v>0.98</v>
       </c>
-      <c r="G21" s="9">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7">
         <v>0.92</v>
       </c>
-      <c r="H21" s="9">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
         <v>0.9</v>
       </c>
-      <c r="I21" s="9">
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
         <v>0.9</v>
       </c>
-      <c r="J21" s="9">
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7">
         <v>0.9</v>
       </c>
-      <c r="K21" s="9">
+      <c r="R21" s="7"/>
+      <c r="S21" s="7">
         <v>0.91</v>
       </c>
-      <c r="L21" s="9">
+      <c r="T21" s="7"/>
+      <c r="U21" s="7">
         <v>0.91</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
       <c r="B22" s="2">
         <v>0.75</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>0.99</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
         <v>0.92</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
         <v>0.99</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
         <v>0.93</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="7"/>
+      <c r="O22" s="7">
         <v>0.93</v>
       </c>
-      <c r="J22" s="9">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7">
         <v>0.93</v>
       </c>
-      <c r="K22" s="9">
+      <c r="R22" s="7"/>
+      <c r="S22" s="7">
         <v>0.92</v>
       </c>
-      <c r="L22" s="9">
+      <c r="T22" s="7"/>
+      <c r="U22" s="7">
         <v>0.92</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.25</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>0.81</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
         <v>0.86</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
         <v>0.84</v>
       </c>
-      <c r="F23" s="9">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
         <v>0.81</v>
       </c>
-      <c r="G23" s="9">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
         <v>0.87</v>
       </c>
-      <c r="H23" s="9">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
         <v>0.78</v>
       </c>
-      <c r="I23" s="9">
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
         <v>0.78</v>
       </c>
-      <c r="J23" s="9">
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7">
         <v>0.78</v>
       </c>
-      <c r="K23" s="9">
+      <c r="R23" s="7"/>
+      <c r="S23" s="7">
         <v>0.81</v>
       </c>
-      <c r="L23" s="9">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7">
         <v>0.81</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
       <c r="B24" s="2">
         <v>0.5</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>0.85</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
         <v>0.88</v>
       </c>
-      <c r="E24" s="9">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
         <v>0.88</v>
       </c>
-      <c r="F24" s="9">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
         <v>0.87</v>
       </c>
-      <c r="G24" s="9">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7">
         <v>0.89</v>
       </c>
-      <c r="H24" s="9">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
         <v>0.83</v>
       </c>
-      <c r="I24" s="9">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7">
         <v>0.83</v>
       </c>
-      <c r="J24" s="9">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7">
         <v>0.83</v>
       </c>
-      <c r="K24" s="9">
+      <c r="R24" s="7"/>
+      <c r="S24" s="7">
         <v>0.84</v>
       </c>
-      <c r="L24" s="9">
+      <c r="T24" s="7"/>
+      <c r="U24" s="7">
         <v>0.84</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
       <c r="B25" s="2">
         <v>0.75</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>0.88</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>0.91</v>
       </c>
-      <c r="E25" s="9">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
         <v>0.9</v>
       </c>
-      <c r="F25" s="9">
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
         <v>0.89</v>
       </c>
-      <c r="G25" s="9">
+      <c r="J25" s="7"/>
+      <c r="K25" s="7">
         <v>0.91</v>
       </c>
-      <c r="H25" s="9">
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
         <v>0.88</v>
       </c>
-      <c r="I25" s="9">
+      <c r="N25" s="7"/>
+      <c r="O25" s="7">
         <v>0.88</v>
       </c>
-      <c r="J25" s="9">
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7">
         <v>0.88</v>
       </c>
-      <c r="K25" s="9">
+      <c r="R25" s="7"/>
+      <c r="S25" s="7">
         <v>0.87</v>
       </c>
-      <c r="L25" s="9">
+      <c r="T25" s="7"/>
+      <c r="U25" s="7">
         <v>0.87</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>20</v>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>0.25</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>0.65</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
         <v>0.38</v>
       </c>
-      <c r="E26" s="9">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
         <v>0.59</v>
       </c>
-      <c r="F26" s="9">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
         <v>0.31</v>
       </c>
-      <c r="G26" s="9">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7">
         <v>0.31</v>
       </c>
-      <c r="H26" s="9">
+      <c r="L26" s="7"/>
+      <c r="M26" s="7">
         <v>0.4</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="7"/>
+      <c r="O26" s="7">
         <v>0.4</v>
       </c>
-      <c r="J26" s="9">
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7">
         <v>0.4</v>
       </c>
-      <c r="K26" s="9">
+      <c r="R26" s="7"/>
+      <c r="S26" s="7">
         <v>0.44</v>
       </c>
-      <c r="L26" s="9">
+      <c r="T26" s="7"/>
+      <c r="U26" s="7">
         <v>0.44</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
       <c r="B27" s="2">
         <v>0.5</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>0.81</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
         <v>0.61</v>
       </c>
-      <c r="E27" s="9">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
         <v>0.6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
         <v>0.32</v>
       </c>
-      <c r="G27" s="9">
+      <c r="J27" s="7"/>
+      <c r="K27" s="7">
         <v>0.32</v>
       </c>
-      <c r="H27" s="9">
+      <c r="L27" s="7"/>
+      <c r="M27" s="7">
         <v>0.5</v>
       </c>
-      <c r="I27" s="9">
+      <c r="N27" s="7"/>
+      <c r="O27" s="7">
         <v>0.5</v>
       </c>
-      <c r="J27" s="9">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7">
         <v>0.5</v>
       </c>
-      <c r="K27" s="9">
+      <c r="R27" s="7"/>
+      <c r="S27" s="7">
         <v>0.6</v>
       </c>
-      <c r="L27" s="9">
+      <c r="T27" s="7"/>
+      <c r="U27" s="7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
       <c r="B28" s="2">
         <v>0.75</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>0.83</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
         <v>0.62</v>
       </c>
-      <c r="E28" s="9">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
         <v>0.62</v>
       </c>
-      <c r="F28" s="9">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
         <v>0.34</v>
       </c>
-      <c r="G28" s="9">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
         <v>0.34</v>
       </c>
-      <c r="H28" s="9">
+      <c r="L28" s="7"/>
+      <c r="M28" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I28" s="9">
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J28" s="9">
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K28" s="9">
+      <c r="R28" s="7"/>
+      <c r="S28" s="7">
         <v>0.76</v>
       </c>
-      <c r="L28" s="9">
+      <c r="T28" s="7"/>
+      <c r="U28" s="7">
         <v>0.76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B3*B4*B5*B6*B7</f>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="O1">
+        <f>K6+K10</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <f>C7-C5</f>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f>E7-E5</f>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <f>G7-G5</f>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <f>I7-I5</f>
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <f>K7-K5</f>
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <f>M7-M5</f>
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <f>O7-O5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <f>C10-C8</f>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <f>E10-E8</f>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <f>G10-G8</f>
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <f>I10-I8</f>
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>34</v>
+      </c>
+      <c r="L10">
+        <f>K10-K8</f>
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <f>M10-M8</f>
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>45</v>
+      </c>
+      <c r="P10">
+        <f>O10-O8</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.0304999999999999E-3</v>
+      </c>
+      <c r="D11" s="6">
+        <f>C11*(0.00089/(1000*9.81))</f>
+        <v>9.3490825688073387E-11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.8730000000000003E-4</v>
+      </c>
+      <c r="F11" s="6">
+        <f>E11*(0.00089/(1000*9.81))</f>
+        <v>4.420968399592253E-11</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6.3840000000000001E-4</v>
+      </c>
+      <c r="H11" s="6">
+        <f>G11*(0.00089/(1000*9.81))</f>
+        <v>5.7918042813455656E-11</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.1612000000000001E-4</v>
+      </c>
+      <c r="J11" s="6">
+        <f>I11*(0.00089/(1000*9.81))</f>
+        <v>1.0534841997961265E-11</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <f>K11*(0.00089/(1000*9.81))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1.1612000000000001E-4</v>
+      </c>
+      <c r="N11" s="6">
+        <f>M11*(0.00089/(1000*9.81))</f>
+        <v>1.0534841997961265E-11</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6">
+        <f>O11*(0.00089/(1000*9.81))</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.9249E-3</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:F19" si="0">C12*(0.00089/(1000*9.81))</f>
+        <v>1.746341488277268E-10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.1215000000000001E-3</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>1.017466870540265E-10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.2225999999999999E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" ref="H12:H19" si="1">G12*(0.00089/(1000*9.81))</f>
+        <v>1.1091885830784912E-10</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.4506E-4</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" ref="J12:J19" si="2">I12*(0.00089/(1000*9.81))</f>
+        <v>1.31603873598369E-11</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2.0278000000000002E-3</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" ref="L12:L19" si="3">K12*(0.00089/(1000*9.81))</f>
+        <v>1.8396962283384302E-10</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1.4506E-4</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" ref="N12:N19" si="4">M12*(0.00089/(1000*9.81))</f>
+        <v>1.31603873598369E-11</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2.0278000000000002E-3</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" ref="P12:P19" si="5">O12*(0.00089/(1000*9.81))</f>
+        <v>1.8396962283384302E-10</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2.8021999999999999E-3</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5422609582059123E-10</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.8240999999999999E-3</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6548919469928642E-10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3.2331E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9331896024464833E-10</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1.7258E-3</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5657104994903159E-10</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1.7258E-3</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5657104994903159E-10</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.52E-6</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2862385321100916E-13</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.0346999999999999E-5</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7531936799184503E-12</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.3426E-5</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2180570846075432E-12</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1.8692E-5</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="2"/>
+        <v>1.695808358817533E-12</v>
+      </c>
+      <c r="K14" s="6">
+        <v>5.1560000000000003E-6</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="3"/>
+        <v>4.677716615698267E-13</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1.8692E-5</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="4"/>
+        <v>1.695808358817533E-12</v>
+      </c>
+      <c r="O14" s="6">
+        <v>8.5799999999999992E-6</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="5"/>
+        <v>7.7840978593272164E-13</v>
+      </c>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.22E-5</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1068297655453619E-12</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6.0439999999999997E-5</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4833435270132513E-12</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.6696E-5</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4219612640163099E-12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>4.3037999999999997E-5</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="2"/>
+        <v>3.9045688073394491E-12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>7.3200000000000002E-6</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="3"/>
+        <v>6.6409785932721714E-13</v>
+      </c>
+      <c r="M15" s="6">
+        <v>4.3037999999999997E-5</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="4"/>
+        <v>3.9045688073394491E-12</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1.6900000000000001E-5</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="5"/>
+        <v>1.5332313965341489E-12</v>
+      </c>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3.5099999999999999E-5</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1844036697247705E-12</v>
+      </c>
+      <c r="E16">
+        <v>1.5417E-4</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3986880733944953E-11</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3.9548999999999997E-5</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5880336391437303E-12</v>
+      </c>
+      <c r="I16" s="6">
+        <v>6.6452999999999995E-5</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="2"/>
+        <v>6.0288654434250759E-12</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.573E-5</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="3"/>
+        <v>1.427084607543323E-12</v>
+      </c>
+      <c r="M16" s="6">
+        <v>6.6452999999999995E-5</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="4"/>
+        <v>6.0288654434250759E-12</v>
+      </c>
+      <c r="O16" s="6">
+        <v>4.3399999999999998E-5</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="5"/>
+        <v>3.9374108053007135E-12</v>
+      </c>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2.0891E-6</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8953098878695209E-13</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7.2291999999999996E-8</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>6.558601427115188E-15</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.2730999999999999E-7</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1550040774719672E-14</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.16E-8</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0523955147808358E-15</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1.1574E-8</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0500366972477063E-15</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1.16E-8</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0523955147808358E-15</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1.1574E-8</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="5"/>
+        <v>1.0500366972477063E-15</v>
+      </c>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4.2819999999999998E-6</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8847910295616712E-13</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.85E-7</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6783893985728848E-14</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4.3981000000000002E-7</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9901213047910295E-14</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.15E-8</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0433231396534149E-15</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4.4560000000000002E-7</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="3"/>
+        <v>4.0426503567787972E-14</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1.15E-8</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0433231396534149E-15</v>
+      </c>
+      <c r="O18" s="6">
+        <v>4.4560000000000002E-7</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="5"/>
+        <v>4.0426503567787972E-14</v>
+      </c>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.254E-5</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1376758409785932E-12</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.9299999999999999E-7</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6582059123343524E-14</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4.2765999999999998E-6</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8798919469928642E-13</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7.8400000000000003E-7</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="2"/>
+        <v>7.1127420998980627E-14</v>
+      </c>
+      <c r="K19" s="6">
+        <v>8.7899999999999997E-7</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="3"/>
+        <v>7.974617737003057E-14</v>
+      </c>
+      <c r="M19" s="6">
+        <v>7.8400000000000003E-7</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="4"/>
+        <v>7.1127420998980627E-14</v>
+      </c>
+      <c r="O19" s="6">
+        <v>8.7899999999999997E-7</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="5"/>
+        <v>7.974617737003057E-14</v>
+      </c>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="P28" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="K3:P3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test7_matk/FieldDataParams_5Dec18.xlsx
+++ b/test7_matk/FieldDataParams_5Dec18.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\mo8557\ats86\testing\3DHummock\test7_matk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ats86\testing\3DHummock\test7_matk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C3575B-CD90-4D3C-9387-6F44B7B54AF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05Dec18" sheetId="1" r:id="rId1"/>
     <sheet name="ParamCombs" sheetId="2" r:id="rId2"/>
     <sheet name="07Dec18" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="43">
   <si>
     <t>ATS Soil Properties</t>
   </si>
@@ -125,12 +133,42 @@
   </si>
   <si>
     <t>Woody Hi</t>
+  </si>
+  <si>
+    <t>bac</t>
+  </si>
+  <si>
+    <t>bct</t>
+  </si>
+  <si>
+    <t>Kac</t>
+  </si>
+  <si>
+    <t>Kct</t>
+  </si>
+  <si>
+    <t>Kmn</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Run LOOPS:</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>&lt;--- BIG swing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -191,6 +229,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -200,7 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,35 +520,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="3" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,46 +554,46 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
@@ -567,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
         <v>15</v>
@@ -595,10 +630,31 @@
       <c r="U4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="V4" s="11"/>
+      <c r="Z4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2">
@@ -634,9 +690,30 @@
       <c r="U5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="Z5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>0.5</v>
       </c>
@@ -670,9 +747,30 @@
       <c r="U6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="Z6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
       <c r="B7" s="2">
         <v>0.75</v>
       </c>
@@ -746,9 +844,30 @@
         <f>U7-U5</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="Z7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
@@ -784,9 +903,30 @@
       <c r="U8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="Z8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>0.5</v>
       </c>
@@ -820,9 +960,30 @@
       <c r="U9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="Z9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>0.75</v>
       </c>
@@ -896,9 +1057,27 @@
         <f>U10-U8</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -922,57 +1101,73 @@
         <v>6.3840000000000001E-4</v>
       </c>
       <c r="H11" s="6">
-        <f>G11*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="H11:H19" si="0">G11*(0.00089/(1000*9.81))</f>
         <v>5.7918042813455656E-11</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6">
-        <f>I11*(0.00089/(1000*9.81))</f>
-        <v>0</v>
+        <v>1.8400000000000001E-10</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6">
-        <f>K11*(0.00089/(1000*9.81))</f>
-        <v>0</v>
+        <v>1.8400000000000001E-10</v>
       </c>
       <c r="M11" s="6">
         <v>1.1612000000000001E-4</v>
       </c>
       <c r="N11" s="6">
-        <f>M11*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="N11:N19" si="1">M11*(0.00089/(1000*9.81))</f>
         <v>1.0534841997961265E-11</v>
       </c>
       <c r="O11" s="6">
         <v>1.1612000000000001E-4</v>
       </c>
       <c r="P11" s="6">
-        <f>O11*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="P11:P19" si="2">O11*(0.00089/(1000*9.81))</f>
         <v>1.0534841997961265E-11</v>
       </c>
       <c r="Q11" s="6">
         <v>1.1612000000000001E-4</v>
       </c>
       <c r="R11" s="6">
-        <f>Q11*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="R11:R19" si="3">Q11*(0.00089/(1000*9.81))</f>
         <v>1.0534841997961265E-11</v>
       </c>
       <c r="S11" s="6">
         <v>6.38E-4</v>
       </c>
       <c r="T11" s="6">
-        <f>S11*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="T11:T19" si="4">S11*(0.00089/(1000*9.81))</f>
         <v>5.788175331294597E-11</v>
       </c>
       <c r="U11" s="6">
         <v>6.38E-4</v>
       </c>
       <c r="V11" s="6">
-        <f>U11*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="V11:V19" si="5">U11*(0.00089/(1000*9.81))</f>
         <v>5.788175331294597E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="AB11">
+        <v>7</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="2">
         <v>0.5</v>
       </c>
@@ -980,75 +1175,93 @@
         <v>1.9249E-3</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" ref="D12:F19" si="0">C12*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="D12:F19" si="6">C12*(0.00089/(1000*9.81))</f>
         <v>1.746341488277268E-10</v>
       </c>
       <c r="E12" s="6">
         <v>1.1215000000000001E-3</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.017466870540265E-10</v>
       </c>
       <c r="G12" s="6">
         <v>1.2225999999999999E-3</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ref="H12" si="1">G12*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="0"/>
         <v>1.1091885830784912E-10</v>
       </c>
       <c r="I12" s="6">
         <v>2.0278000000000002E-3</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" ref="J12" si="2">I12*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="J11:J19" si="7">I12*(0.00089/(1000*9.81))</f>
         <v>1.8396962283384302E-10</v>
       </c>
       <c r="K12" s="6">
         <v>2.0278000000000002E-3</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" ref="L12" si="3">K12*(0.00089/(1000*9.81))</f>
+        <f t="shared" ref="L11:L19" si="8">K12*(0.00089/(1000*9.81))</f>
         <v>1.8396962283384302E-10</v>
       </c>
       <c r="M12" s="6">
         <v>1.4506E-4</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" ref="N12" si="4">M12*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="1"/>
         <v>1.31603873598369E-11</v>
       </c>
       <c r="O12" s="6">
         <v>1.4506E-4</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" ref="P12" si="5">O12*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="2"/>
         <v>1.31603873598369E-11</v>
       </c>
       <c r="Q12" s="6">
         <v>1.4506E-4</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" ref="R12" si="6">Q12*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="3"/>
         <v>1.31603873598369E-11</v>
       </c>
       <c r="S12" s="6">
         <v>1E-3</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" ref="T12" si="7">S12*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="4"/>
         <v>9.0723751274209984E-11</v>
       </c>
       <c r="U12" s="6">
         <v>1E-3</v>
       </c>
       <c r="V12" s="6">
-        <f t="shared" ref="V12" si="8">U12*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="5"/>
         <v>9.0723751274209984E-11</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="AB12">
+        <v>8</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>0.75</v>
       </c>
@@ -1056,71 +1269,90 @@
         <v>2.8021999999999999E-3</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.5422609582059123E-10</v>
       </c>
       <c r="E13" s="6">
         <v>1.8240999999999999E-3</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.6548919469928642E-10</v>
       </c>
       <c r="G13" s="6">
         <v>3.2331E-3</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13" si="9">G13*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="0"/>
         <v>2.9331896024464833E-10</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6">
-        <f t="shared" ref="J13" si="10">I13*(0.00089/(1000*9.81))</f>
-        <v>0</v>
+        <v>1.8400000000000001E-10</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6">
-        <f t="shared" ref="L13" si="11">K13*(0.00089/(1000*9.81))</f>
-        <v>0</v>
+        <v>1.8400000000000001E-10</v>
       </c>
       <c r="M13" s="6">
         <v>1.7258E-3</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" ref="N13" si="12">M13*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="1"/>
         <v>1.5657104994903159E-10</v>
       </c>
       <c r="O13" s="6">
         <v>1.7258E-3</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" ref="P13" si="13">O13*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="2"/>
         <v>1.5657104994903159E-10</v>
       </c>
       <c r="Q13" s="6">
         <v>1.7258E-3</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" ref="R13" si="14">Q13*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="3"/>
         <v>1.5657104994903159E-10</v>
       </c>
       <c r="S13" s="6">
         <v>1.6879E-3</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" ref="T13" si="15">S13*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="4"/>
         <v>1.5313261977573904E-10</v>
       </c>
       <c r="U13" s="6">
         <v>1.6879E-3</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" ref="V13" si="16">U13*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="5"/>
         <v>1.5313261977573904E-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="AB13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -1130,75 +1362,93 @@
         <v>2.52E-6</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.2862385321100916E-13</v>
       </c>
       <c r="E14" s="6">
         <v>3.0346999999999999E-5</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.7531936799184503E-12</v>
       </c>
       <c r="G14" s="6">
         <v>1.3426E-5</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ref="H14" si="17">G14*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="0"/>
         <v>1.2180570846075432E-12</v>
       </c>
       <c r="I14" s="6">
         <v>5.1560000000000003E-6</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" ref="J14" si="18">I14*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="7"/>
         <v>4.677716615698267E-13</v>
       </c>
       <c r="K14" s="6">
         <v>8.5799999999999992E-6</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" ref="L14" si="19">K14*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="8"/>
         <v>7.7840978593272164E-13</v>
       </c>
       <c r="M14" s="6">
         <v>1.8692E-5</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" ref="N14" si="20">M14*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="1"/>
         <v>1.695808358817533E-12</v>
       </c>
       <c r="O14" s="6">
         <v>1.8692E-5</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" ref="P14" si="21">O14*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="2"/>
         <v>1.695808358817533E-12</v>
       </c>
       <c r="Q14" s="6">
         <v>1.8692E-5</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" ref="R14" si="22">Q14*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="3"/>
         <v>1.695808358817533E-12</v>
       </c>
       <c r="S14" s="6">
         <v>1.1199999999999999E-5</v>
       </c>
       <c r="T14" s="6">
-        <f t="shared" ref="T14" si="23">S14*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="4"/>
         <v>1.0161060142711517E-12</v>
       </c>
       <c r="U14" s="6">
         <v>1.1199999999999999E-5</v>
       </c>
       <c r="V14" s="6">
-        <f t="shared" ref="V14" si="24">U14*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="5"/>
         <v>1.0161060142711517E-12</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="AB14">
+        <v>10</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
       <c r="B15" s="2">
         <v>0.5</v>
       </c>
@@ -1206,75 +1456,93 @@
         <v>1.22E-5</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.1068297655453619E-12</v>
       </c>
       <c r="E15" s="6">
         <v>6.0439999999999997E-5</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4833435270132513E-12</v>
       </c>
       <c r="G15" s="6">
         <v>2.6696E-5</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15" si="25">G15*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="0"/>
         <v>2.4219612640163099E-12</v>
       </c>
       <c r="I15" s="6">
         <v>7.3200000000000002E-6</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" ref="J15" si="26">I15*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="7"/>
         <v>6.6409785932721714E-13</v>
       </c>
       <c r="K15" s="6">
         <v>1.6900000000000001E-5</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15" si="27">K15*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="8"/>
         <v>1.5332313965341489E-12</v>
       </c>
       <c r="M15" s="6">
         <v>4.3037999999999997E-5</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" ref="N15" si="28">M15*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="1"/>
         <v>3.9045688073394491E-12</v>
       </c>
       <c r="O15" s="6">
         <v>4.3037999999999997E-5</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" ref="P15" si="29">O15*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="2"/>
         <v>3.9045688073394491E-12</v>
       </c>
       <c r="Q15" s="6">
         <v>4.3037999999999997E-5</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" ref="R15" si="30">Q15*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="3"/>
         <v>3.9045688073394491E-12</v>
       </c>
       <c r="S15" s="6">
         <v>4.6029999999999998E-5</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" ref="T15" si="31">S15*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="4"/>
         <v>4.1760142711518857E-12</v>
       </c>
       <c r="U15" s="6">
         <v>4.6029999999999998E-5</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" ref="V15" si="32">U15*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="5"/>
         <v>4.1760142711518857E-12</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="AB15">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
       <c r="B16" s="2">
         <v>0.75</v>
       </c>
@@ -1282,75 +1550,93 @@
         <v>3.5099999999999999E-5</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.1844036697247705E-12</v>
       </c>
       <c r="E16">
         <v>1.5417E-4</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.3986880733944953E-11</v>
       </c>
       <c r="G16" s="6">
         <v>3.9548999999999997E-5</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16" si="33">G16*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="0"/>
         <v>3.5880336391437303E-12</v>
       </c>
       <c r="I16" s="6">
         <v>1.573E-5</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" ref="J16" si="34">I16*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="7"/>
         <v>1.427084607543323E-12</v>
       </c>
       <c r="K16" s="6">
         <v>4.3399999999999998E-5</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" ref="L16" si="35">K16*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="8"/>
         <v>3.9374108053007135E-12</v>
       </c>
       <c r="M16" s="6">
         <v>6.6452999999999995E-5</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16" si="36">M16*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="1"/>
         <v>6.0288654434250759E-12</v>
       </c>
       <c r="O16" s="6">
         <v>6.6452999999999995E-5</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" ref="P16" si="37">O16*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="2"/>
         <v>6.0288654434250759E-12</v>
       </c>
       <c r="Q16" s="6">
         <v>6.6452999999999995E-5</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" ref="R16" si="38">Q16*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="3"/>
         <v>6.0288654434250759E-12</v>
       </c>
       <c r="S16" s="6">
         <v>8.2812999999999995E-5</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" ref="T16" si="39">S16*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="4"/>
         <v>7.5131060142711514E-12</v>
       </c>
       <c r="U16" s="6">
         <v>8.2812999999999995E-5</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" ref="V16" si="40">U16*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="5"/>
         <v>7.5131060142711514E-12</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="AB16">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
@@ -1360,75 +1646,93 @@
         <v>2.0891E-6</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.8953098878695209E-13</v>
       </c>
       <c r="E17" s="6">
         <v>7.2291999999999996E-8</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.558601427115188E-15</v>
       </c>
       <c r="G17" s="6">
         <v>1.2730999999999999E-7</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ref="H17" si="41">G17*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="0"/>
         <v>1.1550040774719672E-14</v>
       </c>
       <c r="I17" s="6">
         <v>1.1574E-8</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" ref="J17" si="42">I17*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="7"/>
         <v>1.0500366972477063E-15</v>
       </c>
       <c r="K17" s="6">
         <v>1.1574E-8</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17" si="43">K17*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="8"/>
         <v>1.0500366972477063E-15</v>
       </c>
       <c r="M17" s="6">
         <v>1.16E-8</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17" si="44">M17*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="1"/>
         <v>1.0523955147808358E-15</v>
       </c>
       <c r="O17" s="6">
         <v>1.16E-8</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" ref="P17" si="45">O17*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="2"/>
         <v>1.0523955147808358E-15</v>
       </c>
       <c r="Q17" s="6">
         <v>1.16E-8</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" ref="R17" si="46">Q17*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="3"/>
         <v>1.0523955147808358E-15</v>
       </c>
       <c r="S17" s="6">
         <v>4.9189999999999999E-8</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" ref="T17" si="47">S17*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="4"/>
         <v>4.4627013251783893E-15</v>
       </c>
       <c r="U17" s="6">
         <v>4.9189999999999999E-8</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" ref="V17" si="48">U17*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="5"/>
         <v>4.4627013251783893E-15</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="AB17">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
       <c r="B18" s="2">
         <v>0.5</v>
       </c>
@@ -1436,75 +1740,93 @@
         <v>4.2819999999999998E-6</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.8847910295616712E-13</v>
       </c>
       <c r="E18" s="6">
         <v>1.85E-7</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.6783893985728848E-14</v>
       </c>
       <c r="G18" s="6">
         <v>4.3981000000000002E-7</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18" si="49">G18*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="0"/>
         <v>3.9901213047910295E-14</v>
       </c>
       <c r="I18" s="6">
         <v>4.4560000000000002E-7</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" ref="J18" si="50">I18*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="7"/>
         <v>4.0426503567787972E-14</v>
       </c>
       <c r="K18" s="6">
         <v>4.4560000000000002E-7</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" ref="L18" si="51">K18*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="8"/>
         <v>4.0426503567787972E-14</v>
       </c>
       <c r="M18" s="6">
         <v>1.15E-8</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" ref="N18" si="52">M18*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="1"/>
         <v>1.0433231396534149E-15</v>
       </c>
       <c r="O18" s="6">
         <v>1.15E-8</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" ref="P18" si="53">O18*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="2"/>
         <v>1.0433231396534149E-15</v>
       </c>
       <c r="Q18" s="6">
         <v>1.15E-8</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" ref="R18" si="54">Q18*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="3"/>
         <v>1.0433231396534149E-15</v>
       </c>
       <c r="S18" s="6">
         <v>1.157E-7</v>
       </c>
       <c r="T18" s="6">
-        <f t="shared" ref="T18" si="55">S18*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="4"/>
         <v>1.0496738022426096E-14</v>
       </c>
       <c r="U18" s="6">
         <v>1.157E-7</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" ref="V18" si="56">U18*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="5"/>
         <v>1.0496738022426096E-14</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="AB18">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
       <c r="B19" s="2">
         <v>0.75</v>
       </c>
@@ -1512,75 +1834,93 @@
         <v>1.254E-5</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.1376758409785932E-12</v>
       </c>
       <c r="E19" s="6">
         <v>2.9299999999999999E-7</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.6582059123343524E-14</v>
       </c>
       <c r="G19" s="6">
         <v>4.2765999999999998E-6</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ref="H19" si="57">G19*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="0"/>
         <v>3.8798919469928642E-13</v>
       </c>
       <c r="I19" s="6">
         <v>8.7899999999999997E-7</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" ref="J19" si="58">I19*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="7"/>
         <v>7.974617737003057E-14</v>
       </c>
       <c r="K19" s="6">
         <v>8.7899999999999997E-7</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" ref="L19" si="59">K19*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="8"/>
         <v>7.974617737003057E-14</v>
       </c>
       <c r="M19" s="6">
         <v>7.8400000000000003E-7</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" ref="N19" si="60">M19*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="1"/>
         <v>7.1127420998980627E-14</v>
       </c>
       <c r="O19" s="6">
         <v>7.8400000000000003E-7</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" ref="P19" si="61">O19*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="2"/>
         <v>7.1127420998980627E-14</v>
       </c>
       <c r="Q19" s="6">
         <v>7.8400000000000003E-7</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" ref="R19" si="62">Q19*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="3"/>
         <v>7.1127420998980627E-14</v>
       </c>
       <c r="S19" s="6">
         <v>3.3536E-6</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" ref="T19" si="63">S19*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="4"/>
         <v>3.0425117227319059E-13</v>
       </c>
       <c r="U19" s="6">
         <v>3.3536E-6</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" ref="V19" si="64">U19*(0.00089/(1000*9.81))</f>
+        <f t="shared" si="5"/>
         <v>3.0425117227319059E-13</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="AB19">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2">
@@ -1621,9 +1961,27 @@
       <c r="U20" s="7">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="AB20">
+        <v>16</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>0.5</v>
       </c>
@@ -1666,9 +2024,27 @@
       <c r="U21" s="7">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="AB21">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
       <c r="B22" s="2">
         <v>0.75</v>
       </c>
@@ -1707,9 +2083,27 @@
       <c r="U22" s="7">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="AB22">
+        <v>18</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -1754,9 +2148,27 @@
       <c r="U23" s="7">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="AB23">
+        <v>19</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
       <c r="B24" s="2">
         <v>0.5</v>
       </c>
@@ -1799,9 +2211,27 @@
       <c r="U24" s="7">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="AB24">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>0.75</v>
       </c>
@@ -1844,9 +2274,27 @@
       <c r="U25" s="7">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="AB25">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2">
@@ -1891,9 +2339,27 @@
       <c r="U26" s="7">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="AB26">
+        <v>22</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>0.5</v>
       </c>
@@ -1936,9 +2402,27 @@
       <c r="U27" s="7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="AB27">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
       <c r="B28" s="2">
         <v>0.75</v>
       </c>
@@ -1980,6 +2464,184 @@
       <c r="T28" s="7"/>
       <c r="U28" s="7">
         <v>0.76</v>
+      </c>
+      <c r="AB28">
+        <v>24</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>25</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <v>27</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <v>28</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="28:33" x14ac:dyDescent="0.25">
+      <c r="AB33">
+        <v>29</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="28:33" x14ac:dyDescent="0.25">
+      <c r="AB34">
+        <v>30</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="28:33" x14ac:dyDescent="0.25">
+      <c r="AB35">
+        <v>31</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="28:33" x14ac:dyDescent="0.25">
+      <c r="AB36">
+        <v>32</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2086,29 +2748,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="3" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="16" width="8.5703125" customWidth="1"/>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2127,29 +2787,29 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2162,7 +2822,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
         <v>17</v>
@@ -2179,10 +2839,10 @@
       <c r="O4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2">
@@ -2211,7 +2871,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>0.5</v>
       </c>
@@ -2238,7 +2898,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2">
         <v>0.75</v>
       </c>
@@ -2293,7 +2953,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
@@ -2322,7 +2982,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>0.5</v>
       </c>
@@ -2349,7 +3009,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>0.75</v>
       </c>
@@ -2403,8 +3063,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -2457,8 +3117,8 @@
       </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="2">
         <v>0.5</v>
       </c>
@@ -2513,8 +3173,8 @@
       </c>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>0.75</v>
       </c>
@@ -2565,8 +3225,8 @@
       </c>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -2623,8 +3283,8 @@
       </c>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
       <c r="B15" s="2">
         <v>0.5</v>
       </c>
@@ -2679,8 +3339,8 @@
       </c>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
       <c r="B16" s="2">
         <v>0.75</v>
       </c>
@@ -2735,8 +3395,8 @@
       </c>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
@@ -2788,13 +3448,19 @@
         <v>1.1574E-8</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="5"/>
+        <f>O17*(0.00089/(1000*9.81))</f>
         <v>1.0500366972477063E-15</v>
       </c>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="R17" s="6">
+        <v>2.3148148148148148E-8</v>
+      </c>
+      <c r="S17">
+        <f>R17*(0.00089/(1000*9.81))</f>
+        <v>2.1000868350511572E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
       <c r="B18" s="2">
         <v>0.5</v>
       </c>
@@ -2848,9 +3514,13 @@
         <v>4.0426503567787972E-14</v>
       </c>
       <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="S18">
+        <f t="shared" ref="S18:S19" si="6">R18*(0.00089/(1000*9.81))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
       <c r="B19" s="2">
         <v>0.75</v>
       </c>
@@ -2904,9 +3574,16 @@
         <v>7.974617737003057E-14</v>
       </c>
       <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="R19" s="12">
+        <v>5.0100000000000005E-7</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>4.5452599388379205E-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2">
@@ -2937,8 +3614,8 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>0.5</v>
       </c>
@@ -2971,8 +3648,8 @@
       </c>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
       <c r="B22" s="2">
         <v>0.75</v>
       </c>
@@ -3001,8 +3678,8 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -3037,8 +3714,8 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
       <c r="B24" s="2">
         <v>0.5</v>
       </c>
@@ -3071,8 +3748,8 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>0.75</v>
       </c>
@@ -3105,8 +3782,8 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2">
@@ -3141,8 +3818,8 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>0.5</v>
       </c>
@@ -3175,8 +3852,8 @@
       </c>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
       <c r="B28" s="2">
         <v>0.75</v>
       </c>
@@ -3211,6 +3888,7 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="K3:P3"/>
@@ -3222,7 +3900,6 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
